--- a/resources/Members.xlsx
+++ b/resources/Members.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\libraryhhs\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>UserID</t>
   </si>
@@ -63,12 +63,19 @@
   </si>
   <si>
     <t>12345678@gmail.com</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1984,1984</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,54 +440,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="59.0"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625"/>
+    <col min="6" max="6" customWidth="true" width="21.140625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.28515625"/>
+    <col min="11" max="11" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>12345678</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>612345678</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
